--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3656692.164950465</v>
+        <v>3649518.876240183</v>
       </c>
     </row>
     <row r="7">
@@ -661,64 +661,64 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>175.3421784042263</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>141.0252816852793</v>
+      </c>
+      <c r="S2" t="n">
+        <v>205.8118405263978</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>251.3343897888113</v>
+      </c>
+      <c r="V2" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="F2" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="G2" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>128.8335360547029</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -791,13 +791,13 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>129.8475971987709</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>28.69723130130874</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>86.23693751337946</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>372.0396308464228</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464228</v>
+        <v>14.83013367771038</v>
       </c>
       <c r="H5" t="n">
-        <v>78.69319241664036</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.2558301280912</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3078446008425</v>
+        <v>183.1250619752558</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0906518175546</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281877</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129672</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>67.50200165561266</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>242.9546773563974</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>282.586031366913</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>64.00137801481441</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>81.47836036210275</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>328.4378163475058</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>129.0246247964033</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498009</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.96449086431781</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.809281117166</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>135.5947476878508</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>72.15043040726734</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>47.77795106628988</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>27.97269058683773</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2371,7 +2371,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>14.88716286735325</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>192.322803821719</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>231.0382379337321</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>114.2128379281465</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2800,10 +2800,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2854,10 +2854,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>57.58328081410487</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>207.6951870029955</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>115.526976800218</v>
       </c>
     </row>
     <row r="35">
@@ -3319,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>67.42841804951921</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>128.5549619759332</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>276.1491823570827</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274172</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>115.526976800218</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>25.06138696682672</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417115</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.482788338502</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V44" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>122.6519788371604</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1104.626054809422</v>
+        <v>221.4664328873574</v>
       </c>
       <c r="C2" t="n">
-        <v>858.9304414063566</v>
+        <v>221.4664328873574</v>
       </c>
       <c r="D2" t="n">
-        <v>858.9304414063566</v>
+        <v>221.4664328873574</v>
       </c>
       <c r="E2" t="n">
-        <v>579.9844679696339</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="F2" t="n">
-        <v>301.0384945329112</v>
+        <v>37.40762061873336</v>
       </c>
       <c r="G2" t="n">
         <v>22.09252109618844</v>
@@ -4342,10 +4342,10 @@
         <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823544</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>500.4124063240801</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>221.4664328873574</v>
       </c>
       <c r="W2" t="n">
-        <v>1104.626054809422</v>
+        <v>221.4664328873574</v>
       </c>
       <c r="X2" t="n">
-        <v>1104.626054809422</v>
+        <v>221.4664328873574</v>
       </c>
       <c r="Y2" t="n">
-        <v>1104.626054809422</v>
+        <v>221.4664328873574</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>269.0098520841565</v>
+        <v>476.7989437360102</v>
       </c>
       <c r="C3" t="n">
-        <v>269.0098520841565</v>
+        <v>476.7989437360102</v>
       </c>
       <c r="D3" t="n">
-        <v>269.0098520841565</v>
+        <v>327.864534074759</v>
       </c>
       <c r="E3" t="n">
-        <v>109.772397078701</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="F3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618844</v>
@@ -4418,16 +4418,16 @@
         <v>411.954469746149</v>
       </c>
       <c r="M3" t="n">
-        <v>641.2451212288496</v>
+        <v>411.954469746149</v>
       </c>
       <c r="N3" t="n">
-        <v>641.2451212288496</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121334</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4439,22 +4439,22 @@
         <v>836.1767451915302</v>
       </c>
       <c r="T3" t="n">
-        <v>634.2968452196395</v>
+        <v>705.0175561018626</v>
       </c>
       <c r="U3" t="n">
-        <v>634.2968452196395</v>
+        <v>476.7989437360102</v>
       </c>
       <c r="V3" t="n">
-        <v>399.1447369878968</v>
+        <v>476.7989437360102</v>
       </c>
       <c r="W3" t="n">
-        <v>399.1447369878968</v>
+        <v>476.7989437360102</v>
       </c>
       <c r="X3" t="n">
-        <v>399.1447369878968</v>
+        <v>476.7989437360102</v>
       </c>
       <c r="Y3" t="n">
-        <v>399.1447369878968</v>
+        <v>476.7989437360102</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D4" t="n">
-        <v>1104.626054809422</v>
+        <v>170.0056146785816</v>
       </c>
       <c r="E4" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>1017.51803711914</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>964.3352350712132</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>1013.323812322355</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
-        <v>1066.582167123171</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>1099.758582381748</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>860.8464574469926</v>
+        <v>245.8864124348985</v>
       </c>
       <c r="C5" t="n">
-        <v>860.8464574469926</v>
+        <v>245.8864124348985</v>
       </c>
       <c r="D5" t="n">
-        <v>860.8464574469926</v>
+        <v>245.8864124348985</v>
       </c>
       <c r="E5" t="n">
-        <v>860.8464574469926</v>
+        <v>245.8864124348985</v>
       </c>
       <c r="F5" t="n">
-        <v>485.048850531414</v>
+        <v>238.940911685695</v>
       </c>
       <c r="G5" t="n">
-        <v>109.2512436158354</v>
+        <v>223.9609786779068</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771383</v>
+        <v>223.9609786779068</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771359</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380434</v>
+        <v>57.64391735380332</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456885</v>
+        <v>220.1747338456861</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039987</v>
+        <v>474.0852112039946</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494175</v>
+        <v>773.2160860494117</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635723</v>
+        <v>1062.555213635716</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.58230929313</v>
+        <v>1290.582309293121</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935883</v>
+        <v>1447.523776935872</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385691</v>
+        <v>1488.158523385679</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385691</v>
+        <v>1488.158523385679</v>
       </c>
       <c r="S5" t="n">
-        <v>1488.158523385691</v>
+        <v>1488.158523385679</v>
       </c>
       <c r="T5" t="n">
-        <v>1488.158523385691</v>
+        <v>1488.158523385679</v>
       </c>
       <c r="U5" t="n">
-        <v>1234.312215708072</v>
+        <v>1303.183713309663</v>
       </c>
       <c r="V5" t="n">
-        <v>1234.312215708072</v>
+        <v>972.1208259660925</v>
       </c>
       <c r="W5" t="n">
-        <v>1234.312215708072</v>
+        <v>619.3521706959784</v>
       </c>
       <c r="X5" t="n">
-        <v>860.8464574469926</v>
+        <v>245.8864124348985</v>
       </c>
       <c r="Y5" t="n">
-        <v>860.8464574469926</v>
+        <v>245.8864124348985</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>704.4505781382159</v>
+        <v>658.9226223886624</v>
       </c>
       <c r="C6" t="n">
-        <v>704.4505781382159</v>
+        <v>484.4695931075354</v>
       </c>
       <c r="D6" t="n">
-        <v>555.5161684769646</v>
+        <v>335.5351834462841</v>
       </c>
       <c r="E6" t="n">
-        <v>396.278713471509</v>
+        <v>176.2977284408286</v>
       </c>
       <c r="F6" t="n">
-        <v>249.744155498394</v>
+        <v>29.76317046771359</v>
       </c>
       <c r="G6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771359</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771359</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771359</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782869</v>
+        <v>52.67537262782793</v>
       </c>
       <c r="K6" t="n">
-        <v>218.4568186361417</v>
+        <v>218.4568186361401</v>
       </c>
       <c r="L6" t="n">
-        <v>502.7748277822782</v>
+        <v>502.7748277822753</v>
       </c>
       <c r="M6" t="n">
-        <v>871.0940623202368</v>
+        <v>871.0940623202309</v>
       </c>
       <c r="N6" t="n">
-        <v>1179.843642013372</v>
+        <v>871.0940623202309</v>
       </c>
       <c r="O6" t="n">
-        <v>1488.158523385691</v>
+        <v>1179.408943692549</v>
       </c>
       <c r="P6" t="n">
-        <v>1488.158523385691</v>
+        <v>1386.808705706676</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385691</v>
+        <v>1488.158523385679</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707614</v>
+        <v>1488.158523385679</v>
       </c>
       <c r="S6" t="n">
-        <v>1402.847410707614</v>
+        <v>1488.158523385679</v>
       </c>
       <c r="T6" t="n">
-        <v>1334.663570651439</v>
+        <v>1488.158523385679</v>
       </c>
       <c r="U6" t="n">
-        <v>1334.663570651439</v>
+        <v>1488.158523385679</v>
       </c>
       <c r="V6" t="n">
-        <v>1334.663570651439</v>
+        <v>1488.158523385679</v>
       </c>
       <c r="W6" t="n">
-        <v>1080.426213923238</v>
+        <v>1242.749758379217</v>
       </c>
       <c r="X6" t="n">
-        <v>1080.426213923238</v>
+        <v>1034.898258173684</v>
       </c>
       <c r="Y6" t="n">
-        <v>872.665915158284</v>
+        <v>827.1379594087305</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771359</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771359</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771359</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771359</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771359</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771359</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771359</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771359</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771359</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888176</v>
+        <v>32.09990175888098</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611303</v>
+        <v>90.61654790611158</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236693</v>
+        <v>162.7032697236671</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400027</v>
+        <v>238.5105468399998</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057954</v>
+        <v>292.5145415057918</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918684</v>
+        <v>315.2036061918643</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918684</v>
+        <v>315.2036061918643</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918684</v>
+        <v>315.2036061918643</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918684</v>
+        <v>315.2036061918643</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918684</v>
+        <v>315.2036061918643</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918684</v>
+        <v>315.2036061918643</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918684</v>
+        <v>315.2036061918643</v>
       </c>
       <c r="W7" t="n">
-        <v>29.76317046771383</v>
+        <v>315.2036061918643</v>
       </c>
       <c r="X7" t="n">
-        <v>29.76317046771383</v>
+        <v>250.5557496112437</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771383</v>
+        <v>29.76317046771359</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2189.908715988822</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>539.1643278732605</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2189.908715988822</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2189.908715988822</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>2189.908715988822</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047577</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.2708856551153</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
@@ -5038,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5065,7 +5065,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365143</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.2349604684848</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="C13" t="n">
-        <v>674.2349604684848</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D13" t="n">
-        <v>674.2349604684848</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1312.240229025412</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1088.454813814917</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>799.3261750284755</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344999</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="X13" t="n">
-        <v>692.3809108364826</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="Y13" t="n">
-        <v>692.3809108364826</v>
+        <v>544.6416868225887</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>234.1814830641755</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C16" t="n">
-        <v>234.1814830641755</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>234.1814830641755</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>234.1814830641755</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1814830641755</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>234.1814830641755</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>933.2366688293931</v>
+        <v>936.9883990534095</v>
       </c>
       <c r="W16" t="n">
-        <v>643.8194987924326</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="X16" t="n">
-        <v>415.8299478944152</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y16" t="n">
-        <v>415.8299478944152</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,13 +5527,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207831</v>
@@ -5542,13 +5542,13 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
@@ -5597,19 +5597,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864553</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528586</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>2208.321444831246</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>675.2581065529677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>675.2581065529677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2581065529677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1339.580610487112</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1339.580610487112</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1339.580610487112</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>1084.896122281225</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>1084.896122281225</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>856.9065713832074</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>856.9065713832074</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5791,7 +5791,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5834,19 +5834,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>901.6749225845922</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864554</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.59991596447</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>441.2984649031109</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>272.362281975204</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>272.362281975204</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028587</v>
@@ -5910,7 +5910,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
@@ -5919,7 +5919,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>1133.156678913841</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>843.7395088768808</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>843.7395088768808</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>622.9469297333507</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5989,10 +5989,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6022,13 +6022,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6074,13 +6074,13 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341676</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
         <v>2331.418122136705</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.6350999123426</v>
+        <v>391.9645427683695</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>391.9645427683695</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609669</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V25" t="n">
-        <v>731.31772835508</v>
+        <v>909.3712637033474</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181194</v>
+        <v>619.9540936663868</v>
       </c>
       <c r="X25" t="n">
-        <v>247.6350999123426</v>
+        <v>391.9645427683695</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.6350999123426</v>
+        <v>391.9645427683695</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,19 +6211,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
@@ -6238,19 +6238,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6271,7 +6271,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341675</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>581.2185435662825</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C28" t="n">
-        <v>412.2823606383756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D28" t="n">
-        <v>412.2823606383756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609669</v>
+        <v>1265.544313049083</v>
       </c>
       <c r="V28" t="n">
-        <v>986.0022165609669</v>
+        <v>1265.544313049083</v>
       </c>
       <c r="W28" t="n">
-        <v>696.5850465240062</v>
+        <v>976.1271430121219</v>
       </c>
       <c r="X28" t="n">
-        <v>581.2185435662825</v>
+        <v>748.1375921141046</v>
       </c>
       <c r="Y28" t="n">
-        <v>581.2185435662825</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,43 +6457,43 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
         <v>4262.357857465303</v>
@@ -6502,13 +6502,13 @@
         <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341676</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
         <v>507.4972331799365</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>874.9271131227924</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>816.762183007535</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="32">
@@ -6679,16 +6679,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6700,13 +6700,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6782,19 +6782,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341676</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247865</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U34" t="n">
-        <v>964.1357418247865</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V34" t="n">
-        <v>709.4512536188996</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W34" t="n">
-        <v>499.6581354340557</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6937,10 +6937,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6970,13 +6970,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7028,13 +7028,13 @@
         <v>1470.815640507007</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059517</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6642370999743</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C37" t="n">
-        <v>571.6642370999743</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D37" t="n">
-        <v>503.5547239186418</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E37" t="n">
-        <v>355.6416303362487</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347409</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>1275.130855347409</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V37" t="n">
-        <v>1020.446367141522</v>
+        <v>844.0280401273998</v>
       </c>
       <c r="W37" t="n">
-        <v>1020.446367141522</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X37" t="n">
-        <v>792.4568162435045</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y37" t="n">
-        <v>571.6642370999743</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7171,10 +7171,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7195,31 +7195,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341676</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M39" t="n">
-        <v>841.8631140141293</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N39" t="n">
-        <v>1171.725741678162</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
         <v>507.4972331799365</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609669</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="V40" t="n">
-        <v>731.31772835508</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W40" t="n">
-        <v>441.9005583181194</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X40" t="n">
-        <v>213.9110074201021</v>
+        <v>278.8655562905256</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080548</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822472</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643324</v>
@@ -7441,10 +7441,10 @@
         <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121732</v>
@@ -7493,13 +7493,13 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341676</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>932.1883377003194</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
         <v>1736.59991596447</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>213.9110074201021</v>
+        <v>843.1711433963918</v>
       </c>
       <c r="C43" t="n">
-        <v>213.9110074201021</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="D43" t="n">
-        <v>213.9110074201021</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="E43" t="n">
-        <v>213.9110074201021</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028589</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1473.601738268179</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1473.601738268179</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347409</v>
+        <v>1473.601738268179</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609669</v>
+        <v>1473.601738268179</v>
       </c>
       <c r="V43" t="n">
-        <v>731.31772835508</v>
+        <v>1473.601738268179</v>
       </c>
       <c r="W43" t="n">
-        <v>441.9005583181194</v>
+        <v>1473.601738268179</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201021</v>
+        <v>1245.612187370162</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.9110074201021</v>
+        <v>1024.819608226632</v>
       </c>
     </row>
     <row r="44">
@@ -7630,37 +7630,37 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643324</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147082</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211724</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011341</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N45" t="n">
-        <v>1296.555866665167</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O45" t="n">
-        <v>1966.019627967826</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P45" t="n">
-        <v>2486.320249703574</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7833,22 +7833,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>731.31772835508</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>441.9005583181194</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>318.009670603816</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028589</v>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>354.6541654994895</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>111.7499598249992</v>
+        <v>263.6455160524019</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835738</v>
+        <v>450.1033532835722</v>
       </c>
       <c r="N6" t="n">
-        <v>377.4439124169212</v>
+        <v>65.57565010062487</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>85.68821697936131</v>
+        <v>295.1829260845409</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.703734524734</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8774,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>124.3400780863232</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9245,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>124.3400780863232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,25 +9485,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N21" t="n">
-        <v>199.7396287231146</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,16 +9722,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>29.47535963978191</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229574</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9956,22 +9956,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>306.1147370139954</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>234.411650950316</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445216</v>
@@ -10430,22 +10430,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>29.47535963978169</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10676,16 +10676,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>43.65987261462408</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445216</v>
@@ -10904,10 +10904,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>360.5026862907247</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445216</v>
@@ -11141,16 +11141,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>306.1147370139954</v>
       </c>
       <c r="M42" t="n">
-        <v>91.23759968302028</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>306.1147370139954</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.62661940943553</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445216</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>161.8674893176195</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>13.11152886643728</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31908067968536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>179.9872129165607</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>150.1428589173134</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>118.4612720597314</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>133.7283101508591</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>33.3868515673181</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>55.19911446484528</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>111.4968174608907</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>194.5543625097231</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>78.82781133359552</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>103.0576765518768</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>81.18705496869315</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>157.9680363606578</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>10.08817004149461</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>103.0576765518768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>29.89407122271324</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>84.90296543696606</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>103.0576765518768</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>679007.2774849685</v>
+        <v>679007.2774849687</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>679007.2774849687</v>
+        <v>679007.2774849685</v>
       </c>
     </row>
     <row r="14">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
         <v>703852.3075278758</v>
@@ -26328,34 +26328,34 @@
         <v>703852.3075278758</v>
       </c>
       <c r="G2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="H2" t="n">
         <v>703852.3075278758</v>
       </c>
-      <c r="H2" t="n">
-        <v>703852.3075278761</v>
-      </c>
       <c r="I2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="J2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="K2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="L2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="J2" t="n">
-        <v>703852.3075278763</v>
-      </c>
-      <c r="K2" t="n">
-        <v>703852.3075278756</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>703852.307527876</v>
       </c>
-      <c r="M2" t="n">
-        <v>703852.3075278762</v>
-      </c>
       <c r="N2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.307527876</v>
       </c>
       <c r="O2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="P2" t="n">
         <v>703852.3075278759</v>
-      </c>
-      <c r="P2" t="n">
-        <v>703852.3075278758</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703845</v>
+        <v>106137.1517703812</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252101</v>
+        <v>316711.9424252134</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768961</v>
@@ -26383,19 +26383,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113901</v>
+        <v>72254.69487113913</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313438</v>
+        <v>24677.24609313361</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817124</v>
+        <v>76496.15793817195</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26420,46 +26420,46 @@
         <v>283356.3453933829</v>
       </c>
       <c r="C4" t="n">
-        <v>252867.8426256213</v>
+        <v>252867.8426256222</v>
       </c>
       <c r="D4" t="n">
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143901</v>
+        <v>15045.66962143902</v>
       </c>
       <c r="L4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143905</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143904</v>
       </c>
       <c r="O4" t="n">
         <v>15045.66962143903</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.66962143901</v>
+        <v>15045.66962143908</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.4220148572</v>
+        <v>58810.42201485696</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26487,16 +26487,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871665</v>
@@ -26505,7 +26505,7 @@
         <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871667</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>278106.5265208787</v>
+        <v>278106.5265208789</v>
       </c>
       <c r="C6" t="n">
-        <v>321122.1764669918</v>
+        <v>321122.1764669942</v>
       </c>
       <c r="D6" t="n">
-        <v>182591.6141380121</v>
+        <v>182591.6141380091</v>
       </c>
       <c r="E6" t="n">
-        <v>71659.27548082382</v>
+        <v>70684.68422110224</v>
       </c>
       <c r="F6" t="n">
-        <v>596819.3119577201</v>
+        <v>595844.7206979984</v>
       </c>
       <c r="G6" t="n">
-        <v>596819.3119577201</v>
+        <v>595844.7206979987</v>
       </c>
       <c r="H6" t="n">
-        <v>596819.3119577203</v>
+        <v>595844.7206979984</v>
       </c>
       <c r="I6" t="n">
-        <v>596819.3119577202</v>
+        <v>595844.7206979987</v>
       </c>
       <c r="J6" t="n">
-        <v>524564.6170865817</v>
+        <v>523590.0258268595</v>
       </c>
       <c r="K6" t="n">
-        <v>572142.0658645856</v>
+        <v>571167.4746048651</v>
       </c>
       <c r="L6" t="n">
-        <v>520323.1540195491</v>
+        <v>519348.5627598265</v>
       </c>
       <c r="M6" t="n">
-        <v>462018.2967238833</v>
+        <v>461043.7054641614</v>
       </c>
       <c r="N6" t="n">
-        <v>596819.3119577204</v>
+        <v>595844.7206979985</v>
       </c>
       <c r="O6" t="n">
-        <v>596819.3119577202</v>
+        <v>595844.7206979985</v>
       </c>
       <c r="P6" t="n">
-        <v>596819.31195772</v>
+        <v>595844.7206979985</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26740,22 +26740,22 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593896</v>
+        <v>117.5602045593871</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26792,7 +26792,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464228</v>
+        <v>372.0396308464198</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26816,7 +26816,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26825,7 +26825,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253574</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,10 +26962,10 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.5389438402643</v>
+        <v>82.53894384026172</v>
       </c>
       <c r="D3" t="n">
-        <v>260.183459657697</v>
+        <v>260.1834596576996</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370136</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406733</v>
+        <v>95.88311714406434</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081328</v>
+        <v>302.2476419081358</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023551</v>
+        <v>276.1565137023556</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406755</v>
+        <v>95.88311714406457</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081328</v>
+        <v>302.2476419081356</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406733</v>
+        <v>95.88311714406434</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081328</v>
+        <v>302.2476419081358</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>122.0342345019729</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>105.7738563699063</v>
+        <v>206.5881916680354</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>139.005434824964</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.69964759516444</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.2681884137393</v>
@@ -27478,7 +27478,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,13 +27511,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>70.01350377340091</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>119.9182417169036</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,10 +27557,10 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>67.3143516686515</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
         <v>14.93225064571201</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>34.83641489528861</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128754</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>255.9415556491013</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280908</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385215</v>
+        <v>120.1819171385222</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409304</v>
+        <v>198.2506096409306</v>
       </c>
       <c r="T5" t="n">
-        <v>221.0270262658048</v>
+        <v>221.0270262658049</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>68.18278262558673</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27697,7 +27697,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
         <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281896</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129706</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141301</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>131.6435022468497</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
         <v>225.9247462029711</v>
@@ -27757,10 +27757,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>8.740305804522166</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504966</v>
+        <v>149.0752428504968</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358469</v>
+        <v>78.37121764358503</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322655</v>
+        <v>68.41045236322694</v>
       </c>
       <c r="R7" t="n">
-        <v>167.761378725518</v>
+        <v>167.7613787255182</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674583</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882337</v>
+        <v>227.0397976882338</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>3.936966969677997</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>161.7082773742227</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>283.7945314089048</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>85.34635367328917</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50.80735538553398</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866308</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -29517,13 +29517,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29574,10 +29574,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-1.54335762560769e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-9.850272180851698e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30477,10 +30477,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-1.212400893528402e-12</v>
+        <v>-4.71984762172305e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30516,10 +30516,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-5.279569884723499e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-5.279569884723499e-14</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30699,25 +30699,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.221555270729305e-12</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30750,19 +30750,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246816</v>
+        <v>0.4726038374246712</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025522</v>
+        <v>4.840054050025415</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231505</v>
+        <v>18.22005944231466</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662311</v>
+        <v>40.11165994662223</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480989</v>
+        <v>60.11698038480857</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439551</v>
+        <v>74.58043007439387</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819668</v>
+        <v>82.98509856819486</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127956</v>
+        <v>84.32788422127771</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288789</v>
+        <v>79.62842981288614</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646605</v>
+        <v>67.96102257646456</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869462</v>
+        <v>51.0358976486935</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262818</v>
+        <v>29.68720080262753</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531494</v>
+        <v>10.76945994531471</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326545</v>
+        <v>2.0688232983265</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397452</v>
+        <v>0.03780830699397369</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560456</v>
+        <v>0.2528653456560401</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941283</v>
+        <v>2.44214689094123</v>
       </c>
       <c r="I6" t="n">
-        <v>8.70610948859631</v>
+        <v>8.706109488596118</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182842</v>
+        <v>23.8902298718279</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078348</v>
+        <v>40.83220803078258</v>
       </c>
       <c r="L6" t="n">
-        <v>54.9039427048357</v>
+        <v>54.9039427048345</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486735</v>
+        <v>64.07031148486594</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270987</v>
+        <v>65.76606198270844</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106802</v>
+        <v>60.16309827106669</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496893</v>
+        <v>48.28619043496787</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128751</v>
+        <v>32.2780395612868</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134642</v>
+        <v>15.69983260134607</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707687</v>
+        <v>4.696862889707583</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359236</v>
+        <v>1.019224792359214</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368722</v>
+        <v>0.01663587800368686</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005386</v>
+        <v>0.211993811500534</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886609</v>
+        <v>1.884817705886567</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761655</v>
+        <v>6.375232076761516</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308808</v>
+        <v>14.98796247308776</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342621</v>
+        <v>24.62982646342568</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072554</v>
+        <v>31.51769812072486</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094352</v>
+        <v>33.2309935609428</v>
       </c>
       <c r="N7" t="n">
-        <v>32.440834808987</v>
+        <v>32.44083480898629</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736706</v>
+        <v>29.9643616473664</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275605</v>
+        <v>25.63968789275549</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846783</v>
+        <v>17.75159088846744</v>
       </c>
       <c r="R7" t="n">
-        <v>9.53201265165149</v>
+        <v>9.532012651651282</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513932</v>
+        <v>3.694473969513851</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477559</v>
+        <v>0.905791740047736</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0115632988091203</v>
+        <v>0.01156329880912005</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34786,10 +34786,10 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>231.6067186693945</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>151.8955562274027</v>
       </c>
       <c r="O3" t="n">
         <v>269.1887005891756</v>
@@ -34798,7 +34798,7 @@
         <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201059</v>
+        <v>28.16237059200971</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109941</v>
+        <v>164.1725419109928</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548587</v>
+        <v>256.4752296548571</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337564</v>
+        <v>302.1523988337546</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366728</v>
+        <v>292.261745036671</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539465</v>
+        <v>230.3303996539448</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926792</v>
+        <v>158.5267349926777</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414982</v>
+        <v>41.04519843414869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557056</v>
+        <v>23.14363854557004</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690031</v>
+        <v>167.4560060690022</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284207</v>
+        <v>287.1899082284195</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464228</v>
+        <v>372.0396308464198</v>
       </c>
       <c r="N6" t="n">
-        <v>311.8682623162978</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033531</v>
+        <v>311.4291731033518</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>209.4947091051785</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>102.3735532111144</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.36033463754336</v>
+        <v>2.360334637542824</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104168</v>
+        <v>59.107723381041</v>
       </c>
       <c r="M7" t="n">
-        <v>72.8148705227841</v>
+        <v>72.81487052278339</v>
       </c>
       <c r="N7" t="n">
-        <v>76.5730071882156</v>
+        <v>76.57300718821489</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140673</v>
+        <v>54.54948956140608</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764954</v>
+        <v>22.91824715764897</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35904,10 +35904,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>532.9342021211276</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958063</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734238</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315248</v>
@@ -36676,22 +36676,22 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>555.3724419700197</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
         <v>88.01303278507416</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>384.9870895382552</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>362.6699330377946</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q33" t="n">
         <v>88.01303278507416</v>
@@ -37396,16 +37396,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>376.854446012637</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504664</v>
@@ -37636,13 +37636,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>642.866388531833</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>555.3724419700197</v>
       </c>
       <c r="M42" t="n">
-        <v>401.6619767334867</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>555.3724419700197</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504664</v>
@@ -38110,13 +38110,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>138.6396521945097</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
